--- a/lab/csv/linkDB.xlsx
+++ b/lab/csv/linkDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcn0\Documents\GitHub\Zacky0922.github.io\lab\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z\GitHub\Zacky0922.github.io\lab\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4386AA-C47F-4088-8543-D97F2258B11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D768BF3A-9A11-4639-9458-5EC306D69E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="18510" windowHeight="15600" xr2:uid="{DFECCE9D-C606-4DE7-9EC1-8701E044AD27}"/>
+    <workbookView xWindow="975" yWindow="30" windowWidth="27825" windowHeight="16170" activeTab="1" xr2:uid="{DFECCE9D-C606-4DE7-9EC1-8701E044AD27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="612">
   <si>
     <t>title</t>
   </si>
@@ -2097,6 +2097,14 @@
   </si>
   <si>
     <t>MIT Media Lab.&lt;br/&gt;ブロックを組み合わせてプログラムを視覚的に作成できるツールです。&lt;br/&gt;構造化プログラミングの構造が目に見えるだけでなく、ハードウェアとの連携も多く提供されていて、汎用的に教材利用できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Software</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2503,9 +2511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044D7221-9F7C-4697-85AA-17F3DB323718}">
   <dimension ref="A1:AB249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K250" sqref="K250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7604,7 +7612,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7621,7 +7629,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7638,7 +7646,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7652,7 +7660,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7666,7 +7674,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7683,7 +7691,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7697,7 +7705,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7711,7 +7719,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7725,15 +7733,24 @@
         <v>560</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>587</v>
       </c>
+      <c r="C249" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="H249" s="4" t="s">
         <v>510</v>
+      </c>
+      <c r="J249" t="s">
+        <v>548</v>
+      </c>
+      <c r="K249" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -7746,9 +7763,10 @@
   <hyperlinks>
     <hyperlink ref="C152" r:id="rId1" xr:uid="{4CB35F6F-2C6A-4713-BB77-BCC7782E0A0A}"/>
     <hyperlink ref="C206" r:id="rId2" xr:uid="{EB911E5B-8608-4482-B738-F286EBEBE003}"/>
+    <hyperlink ref="C249" r:id="rId3" xr:uid="{81BF23C1-D5EA-4421-AC41-D3E106F0EFBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7756,7 +7774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A554ABEA-9E20-4E78-8676-654A9244106E}">
   <dimension ref="A1:A249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A249" sqref="A1:A249"/>
     </sheetView>
   </sheetViews>
@@ -9256,7 +9274,7 @@
     <row r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249" t="str">
         <f>_xlfn.TEXTJOIN(",",FALSE,Sheet1!A249:P249)</f>
-        <v>248,GitHub,,,,,,Tech,,,,,,,,</v>
+        <v>248,GitHub,https://github.com/,,,,,Tech,,工業,Software,,,,,</v>
       </c>
     </row>
   </sheetData>
